--- a/model_exports/labels/2.0_True_False_8_4.xlsx
+++ b/model_exports/labels/2.0_True_False_8_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C739"/>
+  <dimension ref="A1:C735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-498854240069373953</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-498919835905327104</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,20 +531,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-571473938481602560</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,20 +596,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,98 +622,98 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-759240736864870400</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,37 +726,37 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -765,20 +765,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-858824188815056896</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,24 +843,24 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-859408582407749634</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-859423315986874372</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-859882605604425731</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,24 +882,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-889549980888969217</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-889892042435854336</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-890080777769283584</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,37 +934,37 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-876890893143298050</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,98 +1025,98 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-876899745704415232</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-876909191105048577</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-876910840670302209</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-876983597760172032</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-877064271393370112</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-877647799629733893</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-877649383340298240</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-878107705168334848</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-878263651773407233</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-878265674975461376</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-878542338414362624</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-880275227367821312</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,11 +1181,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1194,33 +1194,33 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,63 +1246,63 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-918248158253273089</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-1028763648074940416</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-975411428663345152</t>
+          <t>t-1028815266174517249</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -1311,24 +1311,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-1028873828355780608</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-1029034881769197569</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -1337,24 +1337,24 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-1029100538422587393</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-827438952974004224</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,24 +1363,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-762401879758372864</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-762402279601344512</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-619895281761423360</t>
+          <t>t-762404827229892608</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,24 +1428,24 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -1454,11 +1454,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>1</v>
@@ -1467,33 +1467,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,20 +1506,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-618057796345593856</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-619513224057061376</t>
+          <t>t-730338940872445952</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-824338590389960704</t>
+          <t>t-731342823132274688</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1558,20 +1558,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-801687875939078144</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-999634090503569409</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,33 +1623,33 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-587673014826741760</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-587688170382163969</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-768897641946181632</t>
+          <t>t-612750086443917313</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-768901368044134400</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,33 +1701,33 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-580481361141743616</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,20 +1740,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-770209564532674560</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1766,37 +1766,37 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-676490487717625856</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -1805,33 +1805,33 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-676517665188507650</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-1007699633349582849</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-1007719195323269122</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -1857,11 +1857,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-1008223489369796609</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
@@ -1870,33 +1870,33 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-1008226683005087744</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-1008430016873394176</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-1008458331160182784</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,24 +1909,24 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-843361396750409728</t>
+          <t>t-1008771230261039104</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-1009061662731767808</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-1009095412505022464</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,50 +1948,50 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-1009284771766140929</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-1009553393331986433</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -2000,33 +2000,33 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,33 +2052,33 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-834484332148297728</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-751267650043387906</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,37 +2091,37 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-1043269235474984960</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -2130,7 +2130,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-681167053609283584</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,20 +2143,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-524878421172953088</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-697866091025080320</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-782856010625003521</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,24 +2208,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,7 +2247,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-985241133159796736</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2273,98 +2273,98 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-662196453281038336</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -2377,7 +2377,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-721832870604640260</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -2390,7 +2390,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-721856912548044800</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,24 +2403,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-722873292755828736</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,7 +2442,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,11 +2468,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2481,11 +2481,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-915529742002135041</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-915535227245776896</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,59 +2533,59 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-540871484869472256</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-543357722591514624</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-821459572263100416</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-851625591652720640</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-852529810760908801</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,72 +2598,72 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-852624282018615296</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,24 +2676,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-843361396750409728</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -2702,76 +2702,76 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-758769139905204224</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1052665207342944261</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-1053196089317306368</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-1053286918086103042</t>
+          <t>t-657221044642684928</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-1054369632671404032</t>
+          <t>t-778616752993214464</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,20 +2793,20 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,20 +2858,20 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-618586257753374720</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -2884,20 +2884,20 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,24 +2910,24 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-763041051426775040</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-763066608868794368</t>
+          <t>t-715573202714562561</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-763135787424636928</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,46 +2962,46 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,33 +3014,33 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1042832069506871296</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,63 +3053,63 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-924790802882146304</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3118,24 +3118,24 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-577773253898477568</t>
+          <t>t-514175192319680513</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-577808831918579712</t>
+          <t>t-997483790145589248</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-997521947297710081</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,24 +3157,24 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,37 +3183,37 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-745382805253677057</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,7 +3222,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,37 +3235,37 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,11 +3274,11 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -3287,11 +3287,11 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,20 +3313,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B222" t="n">
         <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,24 +3352,24 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -3378,37 +3378,37 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-957285309796044800</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-957305309328039936</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,7 +3417,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-957621820626276353</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-958690487875055616</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,141 +3443,141 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B235" t="n">
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,33 +3625,33 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-563347902408695811</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,20 +3664,20 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,63 +3729,63 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-1052331593933688832</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-1052814538419003392</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,7 +3794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-1052930779947393024</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-1052972300667146241</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-1053005694822207488</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,50 +3833,50 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-1053014697077817346</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-1053091674438725632</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-1053211878921568256</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-1053220103070932992</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,33 +3885,33 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-1053451825607774209</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-1053915265375834112</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-859608993752379392</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,24 +3950,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-666910428551897088</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,11 +3976,11 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -3989,20 +3989,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,20 +4015,20 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,20 +4054,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,24 +4132,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,11 +4158,11 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>0</v>
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-771375628176072704</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,20 +4223,20 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,33 +4262,33 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1033036271491461120</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-873677712304463872</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,20 +4301,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,33 +4340,33 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-981529575271337984</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,11 +4379,11 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-766980130283610112</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
         <v>0</v>
@@ -4405,11 +4405,11 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,11 +4431,11 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -4444,72 +4444,72 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-901999787855228933</t>
         </is>
       </c>
       <c r="B311" t="n">
         <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-902015237951549441</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-1042410099652919297</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,11 +4522,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,33 +4535,33 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-599363330575364096</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-839501967894405121</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-839604530048299008</t>
         </is>
       </c>
       <c r="B318" t="n">
@@ -4574,33 +4574,33 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,37 +4613,37 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-895489338364055553</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,11 +4652,11 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-678946767459618818</t>
+          <t>t-880307230364508160</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,46 +4678,46 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-679082878148341760</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B327" t="n">
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-880261784304631810</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,33 +4730,33 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-677631116958896129</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-629437596280750080</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,37 +4769,37 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,37 +4821,37 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -4860,11 +4860,11 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,7 +4886,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-981289690258071552</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,11 +4899,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,7 +4925,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,37 +4938,37 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B347" t="n">
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -4977,37 +4977,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,20 +5029,20 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,20 +5055,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,7 +5081,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,11 +5094,11 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-733752725972746240</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,20 +5120,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-733764949433012224</t>
         </is>
       </c>
       <c r="B361" t="n">
         <v>1</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,20 +5146,20 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>1</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,7 +5172,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,24 +5185,24 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-965898424523591681</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
         <v>0</v>
@@ -5211,11 +5211,11 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,7 +5263,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-913112779548176384</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,33 +5302,33 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
@@ -5354,124 +5354,124 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-912214251749744641</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-1042065710745309186</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-1043080309376466944</t>
+          <t>t-830540407763300352</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-1043179210905464832</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,50 +5497,50 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-859937675339497473</t>
+          <t>t-951198867181236228</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-776037646023925760</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5549,11 +5549,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-819436418263031808</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -5562,11 +5562,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-824672856466423809</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-519900708980948992</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-955145334002417666</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,72 +5601,72 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-527207598521843712</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-527210275955818496</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-527591945795690496</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-722253771867181056</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B401" t="n">
         <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-722818069320470529</t>
+          <t>t-952288702339997696</t>
         </is>
       </c>
       <c r="B402" t="n">
         <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-722837910135832577</t>
+          <t>t-952549733930885120</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,37 +5679,37 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-722884869374619648</t>
+          <t>t-952956945098473472</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-723517423786299392</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
         <v>0</v>
@@ -5718,20 +5718,20 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-738823278840664064</t>
         </is>
       </c>
       <c r="B407" t="n">
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-804010972331524096</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,24 +5757,24 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-832598430291730433</t>
+          <t>t-927168021512126464</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-1006187748338864128</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C411" t="n">
         <v>1</v>
@@ -5783,7 +5783,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-1006198330727247872</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-1006207380676280320</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,20 +5809,20 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-1006582449827209216</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-737657149174730753</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,33 +5835,33 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-737657922885423104</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-738291666285694976</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-750337554457694208</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-520483074711486464</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,11 +5887,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-520499948983304192</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
         <v>1</v>
@@ -5900,24 +5900,24 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-520513908759859200</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-801681235982557184</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
         <v>0</v>
@@ -5926,11 +5926,11 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -5939,11 +5939,11 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5952,46 +5952,46 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,24 +6004,24 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,7 +6030,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,20 +6043,20 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,37 +6069,37 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B434" t="n">
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-538736663154135040</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-544508576757477376</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
         <v>1</v>
@@ -6108,7 +6108,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-544546124984762370</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,7 +6121,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-993438566914101248</t>
+          <t>t-544574124832468992</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,20 +6134,20 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-1001548678748954624</t>
+          <t>t-544578399596187648</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-1001557802375110657</t>
+          <t>t-544615900180393984</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,11 +6160,11 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-544793457190268928</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
         <v>0</v>
@@ -6173,11 +6173,11 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-544806009018265601</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
         <v>1</v>
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-545012520793436160</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,33 +6199,33 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-545215683404267523</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-577791187240787968</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-578574154607280128</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-595190714205634560</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,46 +6251,46 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,11 +6303,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1000392026742034432</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
         <v>1</v>
@@ -6316,63 +6316,63 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1000411846237675521</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1000414273863069696</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1000416714763505664</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-999158779580121089</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
         <v>1</v>
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,11 +6394,11 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
         <v>1</v>
@@ -6407,11 +6407,11 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
         <v>1</v>
@@ -6420,11 +6420,11 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-993886363249455104</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
         <v>0</v>
@@ -6433,33 +6433,33 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-962759977394991104</t>
+          <t>t-962342450219094016</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-962358038081523713</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-962393573927870466</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,50 +6472,50 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-740222976763830272</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-740225059193819140</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-740231562940297216</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-740233568627068929</t>
+          <t>t-974595772317659137</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,24 +6524,24 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-740511241383387136</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,50 +6550,50 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-717265029461049349</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-1014607937048850434</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>0</v>
@@ -6602,33 +6602,33 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-948800001890713600</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B476" t="n">
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,20 +6641,20 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-955871714914766849</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -6667,7 +6667,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,7 +6680,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-753246884345487361</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>1</v>
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,24 +6719,24 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B484" t="n">
         <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
         <v>0</v>
@@ -6745,37 +6745,37 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-1008938317684060160</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-1008975928465248256</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1008978373484400640</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1008995195113918464</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,46 +6810,46 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-1009346793090506752</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1009539540728639490</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-1010058406223400966</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1011026406564823042</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,33 +6862,33 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-916986223478140928</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,76 +6901,76 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-994824289349242881</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-652058053697765376</t>
+          <t>t-994897053523341314</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-653076415596888064</t>
+          <t>t-995019257841889281</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-984045729260982272</t>
+          <t>t-995256568429064192</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-656869699980955649</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-657672314465726464</t>
+          <t>t-769927127475097602</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
         <v>1</v>
@@ -6979,24 +6979,24 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
         <v>1</v>
@@ -7005,11 +7005,11 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,7 +7018,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,33 +7031,33 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-1013800752567996416</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,11 +7070,11 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-1032956238051659778</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-1062323949680373760</t>
+          <t>t-652058053697765376</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,7 +7096,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-653076415596888064</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>0</v>
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>0</v>
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,7 +7174,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B519" t="n">
@@ -7187,20 +7187,20 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-1002274254954647552</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B520" t="n">
         <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1002283218085863430</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,59 +7226,59 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-728492484175745024</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,59 +7291,59 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-952289558770651136</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,7 +7356,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-952536637413584897</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -7369,7 +7369,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-952649290148704259</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B534" t="n">
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-952989314534617088</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,24 +7395,24 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,46 +7434,46 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,46 +7512,46 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1004723222363955200</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B545" t="n">
         <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-748138953241464832</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-760154379307458560</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,20 +7564,20 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,7 +7590,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-792319235351535616</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,63 +7603,63 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-991723021709832193</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>1</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>0</v>
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-855547644516732928</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-855563578274754560</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,33 +7694,33 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-861335479475634176</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-883552231022366723</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,50 +7733,50 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>0</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-575891615593721856</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -7798,24 +7798,24 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
         <v>1</v>
@@ -7824,20 +7824,20 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,7 +7863,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,37 +7876,37 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7915,37 +7915,37 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B577" t="n">
         <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C578" t="n">
         <v>0</v>
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,33 +7967,33 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,46 +8006,46 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-740084104088199168</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,11 +8071,11 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-865948979183222784</t>
+          <t>t-852554541803417600</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -8084,37 +8084,37 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
         <v>0</v>
@@ -8123,33 +8123,33 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B593" t="n">
         <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,72 +8162,72 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B597" t="n">
         <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B598" t="n">
         <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,20 +8253,20 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,7 +8279,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -8292,37 +8292,37 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-944057571853287424</t>
         </is>
       </c>
       <c r="B606" t="n">
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-970475324591915008</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-675258412049956865</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,50 +8344,50 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-838217823608438784</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C612" t="n">
         <v>0</v>
@@ -8396,7 +8396,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,24 +8422,24 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-916572694472155137</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-519137345065320448</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-685773216275533824</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,11 +8578,11 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
         <v>1</v>
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C632" t="n">
         <v>1</v>
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-732021013433724928</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,20 +8708,20 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-732494989838540800</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-732496065941798912</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,20 +8734,20 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,24 +8773,24 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -8799,20 +8799,20 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-839825336552468480</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,46 +8825,46 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-1036192189947281408</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B647" t="n">
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-706405441522143232</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,72 +8877,72 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B651" t="n">
         <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B653" t="n">
         <v>0</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-664725934935707650</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-712147646559879168</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,33 +8994,33 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-1028122158990381056</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C660" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
         <v>1</v>
@@ -9046,24 +9046,24 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-716900054133399553</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -9189,11 +9189,11 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-664089575191478272</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-799444908029284352</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,33 +9215,33 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-799480577057583104</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-825956164366172160</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-825956302023163905</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-825967811814125568</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-825983840988467200</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,24 +9280,24 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,11 +9306,11 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9319,33 +9319,33 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B684" t="n">
         <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,46 +9358,46 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,20 +9410,20 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-803451448700780544</t>
         </is>
       </c>
       <c r="B691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-803454039333556224</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,33 +9436,33 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-803455995494027264</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-803466221962215424</t>
         </is>
       </c>
       <c r="B694" t="n">
         <v>1</v>
       </c>
       <c r="C694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-803470959600467968</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-822808230711721984</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,11 +9488,11 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,11 +9514,11 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-966644863226732544</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,24 +9527,24 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-966649635170238465</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
         <v>1</v>
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,11 +9592,11 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,11 +9618,11 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
         <v>0</v>
@@ -9631,33 +9631,33 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-984973285124222976</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-1037871134488707072</t>
         </is>
       </c>
       <c r="B709" t="n">
         <v>1</v>
       </c>
       <c r="C709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-1037879643695529985</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-1037893136482103296</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-1037997508973060096</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,33 +9696,33 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-556107639625510912</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-950566545595551745</t>
+          <t>t-564756286211100672</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C714" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-701328466483027968</t>
+          <t>t-565303060420112386</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,33 +9735,33 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-754793839844397056</t>
+          <t>t-565336619021262848</t>
         </is>
       </c>
       <c r="B716" t="n">
         <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-579496758595584000</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-594000547591553024</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-594263552824741888</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,20 +9787,20 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-594718318050684929</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-595757559006507011</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,24 +9813,24 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-808956641743732736</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-809733108471889920</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,46 +9839,46 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B726" t="n">
         <v>1</v>
       </c>
       <c r="C726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-883957999576002561</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,11 +9891,11 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9911,39 +9911,39 @@
         <v>1</v>
       </c>
       <c r="C729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-877794875583934464</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -9956,11 +9956,11 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-732116489394851840</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C733" t="n">
         <v>1</v>
@@ -9969,7 +9969,7 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>t-732306842290946048</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -9982,65 +9982,13 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-935382314166693889</t>
         </is>
       </c>
       <c r="B735" t="n">
         <v>1</v>
       </c>
       <c r="C735" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>t-780951872647475200</t>
-        </is>
-      </c>
-      <c r="B736" t="n">
-        <v>1</v>
-      </c>
-      <c r="C736" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>t-833912149630078976</t>
-        </is>
-      </c>
-      <c r="B737" t="n">
-        <v>1</v>
-      </c>
-      <c r="C737" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>t-928096679089209344</t>
-        </is>
-      </c>
-      <c r="B738" t="n">
-        <v>0</v>
-      </c>
-      <c r="C738" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>t-940573035752386560</t>
-        </is>
-      </c>
-      <c r="B739" t="n">
-        <v>1</v>
-      </c>
-      <c r="C739" t="n">
         <v>1</v>
       </c>
     </row>
